--- a/metrics/ClassifierMetrics.xlsx
+++ b/metrics/ClassifierMetrics.xlsx
@@ -420,8 +420,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43354368"/>
-        <c:axId val="43356160"/>
+        <c:axId val="80646528"/>
+        <c:axId val="80648448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -499,11 +499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43354368"/>
-        <c:axId val="43356160"/>
+        <c:axId val="80646528"/>
+        <c:axId val="80648448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43354368"/>
+        <c:axId val="80646528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43356160"/>
+        <c:crossAx val="80648448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -539,7 +539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43356160"/>
+        <c:axId val="80648448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43354368"/>
+        <c:crossAx val="80646528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -605,6 +605,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unigram-Bag of Words-ALL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -873,8 +892,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45497344"/>
-        <c:axId val="95163136"/>
+        <c:axId val="81217792"/>
+        <c:axId val="81231872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -952,20 +971,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45497344"/>
-        <c:axId val="95163136"/>
+        <c:axId val="81217792"/>
+        <c:axId val="81231872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45497344"/>
+        <c:axId val="81217792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95163136"/>
+        <c:crossAx val="81231872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,18 +1011,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95163136"/>
+        <c:axId val="81231872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45497344"/>
+        <c:crossAx val="81217792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1010,16 +1067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533397</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523872</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1040,16 +1097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1361,7 +1418,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
